--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BBD0A0-3A5C-8741-A892-DEDCE3D36401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E42A82-EE75-E14D-B6BB-08945CC86284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28520" windowHeight="16600" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="22700" windowHeight="20500" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
-    <sheet name="Коммиты" sheetId="2" r:id="rId2"/>
+    <sheet name="Рабочий журнал" sheetId="3" r:id="rId2"/>
+    <sheet name="Коммиты" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Наименование</t>
   </si>
@@ -63,12 +64,60 @@
   </si>
   <si>
     <t>Нет, делалось долго из-за новой архитектуры backend`a слоями</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Конец</t>
+  </si>
+  <si>
+    <t>Описание выполненной работы</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Затраченное время, часы</t>
+  </si>
+  <si>
+    <t>kz/toolsKz/vars/basePostalCodes.pkl</t>
+  </si>
+  <si>
+    <t>id коммита</t>
+  </si>
+  <si>
+    <t>4e9bb94</t>
+  </si>
+  <si>
+    <t>7e584ca</t>
+  </si>
+  <si>
+    <t>kz/toolsKz/vars/baseOrgsContacts.pkl</t>
+  </si>
+  <si>
+    <t>Создание обновляемого реестра компаний для быстрого поиска контактов по ИНН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Создание обновляемого реестра почтовых индексов РФ для быстрого поиска </t>
+  </si>
+  <si>
+    <t>Обновление основного скрипта по парсингу данных о лицензиях минестрества культуры для корректной работы events и validators в sqlalchemy ORM</t>
+  </si>
+  <si>
+    <t>kz/toolsKz/src/licencesMinCulture/ParsingMinCultLicenses.py</t>
+  </si>
+  <si>
+    <t>c962934</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -79,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +138,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -144,6 +199,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,10 +904,244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2CB1F-2B13-FF49-B21A-E10C4BC1633A}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>44679.489583333336</v>
+      </c>
+      <c r="B2" s="9">
+        <v>44679.538888888892</v>
+      </c>
+      <c r="C2" s="10">
+        <f>(B2-A2) * 24</f>
+        <v>1.1833333333488554</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>44679.458333333336</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44679.488194444442</v>
+      </c>
+      <c r="C3" s="10">
+        <f>(B3-A3) * 24</f>
+        <v>0.71666666655801237</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>44679.589583333334</v>
+      </c>
+      <c r="B4" s="9">
+        <v>44679.679861111108</v>
+      </c>
+      <c r="C4" s="10">
+        <f>(B4-A4) * 24</f>
+        <v>2.1666666665696539</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6BE89C-7DDF-1848-8450-D135AE7A3570}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E42A82-EE75-E14D-B6BB-08945CC86284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF6EE7-C4EF-C04B-BE24-A5226DED2177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="22700" windowHeight="20500" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="19660" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Наименование</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>c962934</t>
+  </si>
+  <si>
+    <t>a8e06ba</t>
+  </si>
+  <si>
+    <t>Настройка validators и events для корректной записи в БД через ORM sqlalchemy</t>
+  </si>
+  <si>
+    <t>kz/toolsKz/_db/dbModelsStorage.py</t>
+  </si>
+  <si>
+    <t>984f2f0</t>
+  </si>
+  <si>
+    <t>Исправление ошибки в обновлении существующих записей</t>
+  </si>
+  <si>
+    <t>1e74e63</t>
   </si>
 </sst>
 </file>
@@ -118,10 +136,17 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -908,7 +933,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,29 +1029,68 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+    <row r="5" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>44679.743055555555</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44679.763888888891</v>
+      </c>
+      <c r="C5" s="10">
+        <f>(B5-A5) * 24</f>
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>44679.926388888889</v>
+      </c>
+      <c r="B6" s="9">
+        <v>44680.017361111109</v>
+      </c>
+      <c r="C6" s="10">
+        <f>(B6-A6) * 24</f>
+        <v>2.1833333332906477</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>44680.023611111108</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44680.080555555556</v>
+      </c>
+      <c r="C7" s="10">
+        <f>(B7-A7) * 24</f>
+        <v>1.3666666667559184</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -1133,6 +1197,7 @@
       <c r="F20" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF6EE7-C4EF-C04B-BE24-A5226DED2177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E8CFE5-6406-D149-8EBF-99DA032638B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="19660" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
+    <workbookView xWindow="-33600" yWindow="500" windowWidth="22700" windowHeight="20500" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Наименование</t>
   </si>
@@ -127,6 +127,21 @@
   </si>
   <si>
     <t>1e74e63</t>
+  </si>
+  <si>
+    <t>1e74e64</t>
+  </si>
+  <si>
+    <t>Выполнение создания реестра предстоящих закупок из план. графиков</t>
+  </si>
+  <si>
+    <t>Процент выполнения плана:</t>
+  </si>
+  <si>
+    <t>Итоги:</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/planGraphs/src/PlanGraphsProcessRegion.py</t>
   </si>
 </sst>
 </file>
@@ -134,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,8 +167,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -196,11 +233,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,21 +290,40 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2CB1F-2B13-FF49-B21A-E10C4BC1633A}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,7 +1029,7 @@
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
@@ -974,7 +1057,7 @@
         <v>44679.538888888892</v>
       </c>
       <c r="C2" s="10">
-        <f>(B2-A2) * 24</f>
+        <f t="shared" ref="C2:C7" si="0">(B2-A2) * 24</f>
         <v>1.1833333333488554</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -995,7 +1078,7 @@
         <v>44679.488194444442</v>
       </c>
       <c r="C3" s="10">
-        <f>(B3-A3) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.71666666655801237</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1004,7 +1087,7 @@
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1016,7 +1099,7 @@
         <v>44679.679861111108</v>
       </c>
       <c r="C4" s="10">
-        <f>(B4-A4) * 24</f>
+        <f t="shared" si="0"/>
         <v>2.1666666665696539</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1025,7 +1108,7 @@
       <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1037,7 +1120,7 @@
         <v>44679.763888888891</v>
       </c>
       <c r="C5" s="10">
-        <f>(B5-A5) * 24</f>
+        <f t="shared" si="0"/>
         <v>0.50000000005820766</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1046,7 +1129,7 @@
       <c r="E5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1058,7 +1141,7 @@
         <v>44680.017361111109</v>
       </c>
       <c r="C6" s="10">
-        <f>(B6-A6) * 24</f>
+        <f t="shared" si="0"/>
         <v>2.1833333332906477</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -1067,7 +1150,7 @@
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1079,7 +1162,7 @@
         <v>44680.080555555556</v>
       </c>
       <c r="C7" s="10">
-        <f>(B7-A7) * 24</f>
+        <f t="shared" si="0"/>
         <v>1.3666666667559184</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -1088,33 +1171,57 @@
       <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="14">
+        <v>44679</v>
+      </c>
+      <c r="C8" s="13">
+        <f xml:space="preserve"> SUM(C2:C7)</f>
+        <v>8.1166666665812954</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="15">
+        <f>C8/2.66</f>
+        <v>3.0513784460831936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>44680.527083333334</v>
+      </c>
+      <c r="B9" s="9">
+        <v>44681.080555555556</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" ref="C9" si="1">(B9-A9) * 24</f>
+        <v>13.283333333325572</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -1122,7 +1229,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
@@ -1130,7 +1237,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
@@ -1138,7 +1245,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
@@ -1146,7 +1253,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -1154,7 +1261,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -1162,7 +1269,7 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -1170,7 +1277,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
@@ -1178,7 +1285,7 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
@@ -1186,7 +1293,7 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
@@ -1194,9 +1301,12 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:E8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E8CFE5-6406-D149-8EBF-99DA032638B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8F2F4-B8AC-234B-A335-F52BD3A136D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="500" windowWidth="22700" windowHeight="20500" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="19660" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Наименование</t>
   </si>
@@ -129,19 +129,40 @@
     <t>1e74e63</t>
   </si>
   <si>
-    <t>1e74e64</t>
-  </si>
-  <si>
-    <t>Выполнение создания реестра предстоящих закупок из план. графиков</t>
-  </si>
-  <si>
     <t>Процент выполнения плана:</t>
   </si>
   <si>
     <t>Итоги:</t>
   </si>
   <si>
-    <t>kz/processFz44Server/planGraphs/src/PlanGraphsProcessRegion.py</t>
+    <t>План часов в день:</t>
+  </si>
+  <si>
+    <t>Выполнение форматирования модуля, обрабатывающего файлы с расширением *.zip</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/_modules/serviceFiles/ProcessFileZip.py</t>
+  </si>
+  <si>
+    <t>dc68d47</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/_modules/servicesProgram/ProgramLogger.py</t>
+  </si>
+  <si>
+    <t>Выполнение форматирования модуля логгирования процесса выполнения программы</t>
+  </si>
+  <si>
+    <t>07d1a27</t>
+  </si>
+  <si>
+    <t>Выполнение форматирования модуля по работе с телеграмм ботом</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/_modules/servicesProgram/TelegramBot.py</t>
+  </si>
+  <si>
+    <t>fd00e84</t>
   </si>
 </sst>
 </file>
@@ -210,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -259,12 +280,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +350,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1013,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2CB1F-2B13-FF49-B21A-E10C4BC1633A}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,9 +1061,10 @@
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" customWidth="1"/>
     <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1083,14 @@
       <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="H1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="20">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>44679.489583333336</v>
       </c>
@@ -1070,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>44679.458333333336</v>
       </c>
@@ -1091,7 +1132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>44679.589583333334</v>
       </c>
@@ -1112,7 +1153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>44679.743055555555</v>
       </c>
@@ -1133,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>44679.926388888889</v>
       </c>
@@ -1154,7 +1195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>44680.023611111108</v>
       </c>
@@ -1175,9 +1216,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="14">
         <v>44679</v>
@@ -1187,67 +1228,119 @@
         <v>8.1166666665812954</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="15">
-        <f>C8/2.66</f>
+        <f>C8/I1</f>
         <v>3.0513784460831936</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>44680.527083333334</v>
+        <v>44680.786111111112</v>
       </c>
       <c r="B9" s="9">
-        <v>44681.080555555556</v>
+        <v>44680.837500000001</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" ref="C9" si="1">(B9-A9) * 24</f>
-        <v>13.283333333325572</v>
+        <v>1.2333333333372138</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>44680.838888888888</v>
+      </c>
+      <c r="B10" s="9">
+        <v>44680.849305555559</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" ref="C10" si="2">(B10-A10) * 24</f>
+        <v>0.25000000011641532</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>44680.932638888888</v>
+      </c>
+      <c r="B11" s="9">
+        <v>44680.961111111108</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11" si="3">(B11-A11) * 24</f>
+        <v>0.68333333329064772</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44680</v>
+      </c>
+      <c r="C12" s="13">
+        <f xml:space="preserve"> SUM(C9:C11)</f>
+        <v>2.1666666667442769</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="17"/>
+      <c r="F12" s="15">
+        <f>C12/I1</f>
+        <v>0.81453634088130711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>44680.932638888888</v>
+      </c>
+      <c r="B13" s="9">
+        <v>44680.961111111108</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" ref="C13" si="4">(B13-A13) * 24</f>
+        <v>0.68333333329064772</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1255,7 +1348,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1263,7 +1356,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1295,17 +1388,10 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A8F2F4-B8AC-234B-A335-F52BD3A136D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225731DE-F1B2-CE4E-B2E0-3322A34E21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="19660" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Наименование</t>
   </si>
@@ -163,6 +163,24 @@
   </si>
   <si>
     <t>fd00e84</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/_modules/servicesServer/ServerViaFTP.py</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/_modules/servicesFiles/ProcessFileXml.py</t>
+  </si>
+  <si>
+    <t>Выполнение форматирования модуля по работе с удаленным сервером, подключенным через FTP соединение</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fce11ac </t>
+  </si>
+  <si>
+    <t>Выполнение форматирования модуль, обрабатывающий XML файлы</t>
+  </si>
+  <si>
+    <t>e8ea172</t>
   </si>
 </sst>
 </file>
@@ -231,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -280,15 +298,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -341,19 +350,19 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1049,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2CB1F-2B13-FF49-B21A-E10C4BC1633A}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,10 +1092,10 @@
       <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="18">
         <v>2.66</v>
       </c>
     </row>
@@ -1217,7 +1226,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="14">
@@ -1227,10 +1236,10 @@
         <f xml:space="preserve"> SUM(C2:C7)</f>
         <v>8.1166666665812954</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="15">
         <f>C8/I1</f>
         <v>3.0513784460831936</v>
@@ -1300,7 +1309,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="14">
@@ -1310,51 +1319,76 @@
         <f xml:space="preserve"> SUM(C9:C11)</f>
         <v>2.1666666667442769</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="15">
         <f>C12/I1</f>
         <v>0.81453634088130711</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>44680.932638888888</v>
+        <v>44681.474305555559</v>
       </c>
       <c r="B13" s="9">
-        <v>44680.961111111108</v>
+        <v>44681.498611111114</v>
       </c>
       <c r="C13" s="10">
         <f t="shared" ref="C13" si="4">(B13-A13) * 24</f>
-        <v>0.68333333329064772</v>
+        <v>0.58333333331393078</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>44681.65625</v>
+      </c>
+      <c r="B14" s="9">
+        <v>44681.768750000003</v>
+      </c>
+      <c r="C14" s="10">
+        <f>(B14-A14) * 24 - 1.5</f>
+        <v>1.2000000000698492</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="14">
+        <v>44681</v>
+      </c>
+      <c r="C15" s="13">
+        <f xml:space="preserve"> SUM(C13:C14)</f>
+        <v>1.78333333338378</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="15">
+        <f>C15/I1</f>
+        <v>0.67042606518187209</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
@@ -1389,12 +1423,14 @@
       <c r="F19" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225731DE-F1B2-CE4E-B2E0-3322A34E21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8A28E-EABA-AD4E-8578-0187C039FF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="19660" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>Наименование</t>
   </si>
@@ -181,6 +181,21 @@
   </si>
   <si>
     <t>e8ea172</t>
+  </si>
+  <si>
+    <t>Выполнение форматирования модуля, обеспечивающего взаимодействие с базой данных</t>
+  </si>
+  <si>
+    <t>fed0663</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/_db</t>
+  </si>
+  <si>
+    <t>Создание мета - класса по выполнению обработки директории на FTP сервере закупки гов</t>
+  </si>
+  <si>
+    <t>Завершение работы над мета - классом по обработке файлов на FTP сервере</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2CB1F-2B13-FF49-B21A-E10C4BC1633A}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1390,43 +1405,95 @@
         <v>0.67042606518187209</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+    <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>44682.686111111114</v>
+      </c>
+      <c r="B16" s="9">
+        <v>44682.73333333333</v>
+      </c>
+      <c r="C16" s="10">
+        <f>(B16-A16) * 24</f>
+        <v>1.1333333331858739</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="A17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="14">
+        <v>44682</v>
+      </c>
+      <c r="C17" s="13">
+        <f xml:space="preserve"> SUM(C16)</f>
+        <v>1.1333333331858739</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="15">
+        <f>C17/I1</f>
+        <v>0.42606516285183227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>44682.493055555555</v>
+      </c>
+      <c r="B18" s="9">
+        <v>44682.599305555559</v>
+      </c>
+      <c r="C18" s="10">
+        <f>(B18-A18) * 24</f>
+        <v>2.5500000001047738</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2532142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>44682.93472222222</v>
+      </c>
+      <c r="B19" s="9">
+        <v>44682.599305555559</v>
+      </c>
+      <c r="C19" s="10">
+        <f>(B19-A19) * 24</f>
+        <v>-8.0499999998719431</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC8A28E-EABA-AD4E-8578-0187C039FF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE1DFC-D21C-7147-8CA1-AC79AB6AB3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="19660" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Наименование</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>Завершение работы над мета - классом по обработке файлов на FTP сервере</t>
+  </si>
+  <si>
+    <t>Завершение работы над универсальной программой по обработке  FTP сервере</t>
+  </si>
+  <si>
+    <t>Написание структур для извлечения данных из различных файлов, размещаемых на FTP закупок</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/src</t>
+  </si>
+  <si>
+    <t>f5850cc</t>
+  </si>
+  <si>
+    <t>kz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выполнение проверки теории о том, что после проведения закупки без поставщиков - происходит отмена </t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2CB1F-2B13-FF49-B21A-E10C4BC1633A}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="81" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1448,10 +1466,10 @@
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>44682.493055555555</v>
+        <v>44683.493055555555</v>
       </c>
       <c r="B18" s="9">
-        <v>44682.599305555559</v>
+        <v>44683.599305555559</v>
       </c>
       <c r="C18" s="10">
         <f>(B18-A18) * 24</f>
@@ -1469,14 +1487,14 @@
     </row>
     <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>44682.93472222222</v>
+        <v>44683.93472222222</v>
       </c>
       <c r="B19" s="9">
-        <v>44682.599305555559</v>
+        <v>44684.025694444441</v>
       </c>
       <c r="C19" s="10">
         <f>(B19-A19) * 24</f>
-        <v>-8.0499999998719431</v>
+        <v>2.1833333332906477</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>52</v>
@@ -1488,12 +1506,117 @@
         <v>49</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="14">
+        <v>44683</v>
+      </c>
+      <c r="C20" s="13">
+        <f xml:space="preserve"> SUM(C18:C19)</f>
+        <v>4.7333333333954215</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="15">
+        <f>C20/I1</f>
+        <v>1.7794486215772261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>44684.441666666666</v>
+      </c>
+      <c r="B21" s="9">
+        <v>44684.966666666667</v>
+      </c>
+      <c r="C21" s="10">
+        <f>(B21-A21) * 24 - 3.5</f>
+        <v>9.1000000000349246</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="5">
+        <v>2532142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="14">
+        <v>44684</v>
+      </c>
+      <c r="C22" s="13">
+        <f xml:space="preserve"> SUM(C21)</f>
+        <v>9.1000000000349246</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="15">
+        <f>C22/I1</f>
+        <v>3.4210526315920768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
+        <v>44685.35</v>
+      </c>
+      <c r="B23" s="9">
+        <v>44685.499305555553</v>
+      </c>
+      <c r="C23" s="10">
+        <f>(B23-A23) * 24</f>
+        <v>3.5833333333139308</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
+        <v>44685.500694444447</v>
+      </c>
+      <c r="B24" s="9">
+        <v>44685.499305555553</v>
+      </c>
+      <c r="C24" s="10">
+        <f>(B24-A24) * 24</f>
+        <v>-3.3333333441987634E-2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/work-journal.xlsx
+++ b/docs/work-journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makarov/Documents/kz/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE1DFC-D21C-7147-8CA1-AC79AB6AB3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E315F191-F296-DF48-824B-54270BFB9582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22700" windowHeight="19660" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
+    <workbookView xWindow="-20500" yWindow="5760" windowWidth="20480" windowHeight="15240" activeTab="1" xr2:uid="{A70C19F4-D503-844F-B7A5-910D701356B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>Наименование</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t xml:space="preserve">Выполнение проверки теории о том, что после проведения закупки без поставщиков - происходит отмена </t>
+  </si>
+  <si>
+    <t>Итоги за месяц</t>
+  </si>
+  <si>
+    <t>Наработка</t>
+  </si>
+  <si>
+    <t>Наработка в процентах</t>
+  </si>
+  <si>
+    <t>Выполнение объединения ООП репозитория</t>
+  </si>
+  <si>
+    <t>kz/processFz44Server/eis</t>
   </si>
 </sst>
 </file>
@@ -256,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -331,12 +352,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +426,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1089,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B2CB1F-2B13-FF49-B21A-E10C4BC1633A}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="81" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,11 +1642,11 @@
         <v>44685.500694444447</v>
       </c>
       <c r="B24" s="9">
-        <v>44685.499305555553</v>
+        <v>44685.655555555553</v>
       </c>
       <c r="C24" s="10">
         <f>(B24-A24) * 24</f>
-        <v>-3.3333333441987634E-2</v>
+        <v>3.7166666665580124</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>58</v>
@@ -1609,8 +1658,81 @@
         <v>56</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="14">
+        <v>44685</v>
+      </c>
+      <c r="C25" s="13">
+        <f xml:space="preserve"> SUM(C23:C24)</f>
+        <v>7.2999999998719431</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="15">
+        <f>C25/I1</f>
+        <v>2.7443609022074971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22">
+        <f>SUM(C8,C12,C15,C17,C20,C22,C25)</f>
+        <v>34.333333333197515</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24">
+        <f>C27/(20*I1)</f>
+        <v>0.64536340851875029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="9">
+        <v>44717.504861111112</v>
+      </c>
+      <c r="B28" s="9">
+        <v>44717.746527777781</v>
+      </c>
+      <c r="C28" s="10">
+        <f>(B28-A28) * 24</f>
+        <v>5.8000000000465661</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D12:E12"/>
